--- a/joython/macros/APSAIA_VIS.xlsx
+++ b/joython/macros/APSAIA_VIS.xlsx
@@ -234,8 +234,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K38" activeCellId="0" sqref="K38:K50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D51" activeCellId="0" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1541,7 +1541,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>14</v>
